--- a/04_単体テスト/単体試験仕様書/チーム3/K01勤怠管理画面_単体試験仕様書_張.xlsx
+++ b/04_単体テスト/単体試験仕様書/チーム3/K01勤怠管理画面_単体試験仕様書_張.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18bea62673fb5db6/デスクトップ/git/2022092/04_単体テスト/単体試験仕様書/チーム3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{549DF63A-814D-FE4A-8C40-E64781BC5077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{481983AF-F265-49D6-9AB1-94ACFBD04619}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{549DF63A-814D-FE4A-8C40-E64781BC5077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C49A799C-E7C9-4860-8AE5-4D8CF3C52B4E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="804" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="ケース" sheetId="41" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ケース!$A$1:$AJ$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ケース!$A$1:$AJ$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">初期画面表示!$A$1:$AJ$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -242,10 +242,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>検索ボタンを押下する場合</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -261,9 +257,6 @@
       <t>ショゾクブモン</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未入力の場合</t>
   </si>
   <si>
     <t>氏名</t>
@@ -292,10 +285,6 @@
     <rPh sb="2" eb="4">
       <t>ジョウタイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠年月日</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -364,6 +353,25 @@
     <rPh sb="0" eb="2">
       <t>シャイn</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠年月日-開始</t>
+    <rPh sb="6" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠年月日-開始</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力の場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　未入力の場合</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -788,6 +796,54 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,59 +865,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -872,14 +886,17 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -891,25 +908,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1475,110 +1483,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="33" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="34" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="33" t="s">
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="34" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="46" t="s">
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="48" t="s">
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="46" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="50"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="39"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="37" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38" t="s">
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="37" t="s">
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="38" t="s">
-        <v>44</v>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="40" t="s">
+        <v>41</v>
       </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="41" t="s">
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="43">
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="29">
         <v>44830</v>
       </c>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="41" t="s">
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="45"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="31"/>
     </row>
     <row r="3" spans="1:42" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
@@ -11698,6 +11706,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:U2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
@@ -11708,13 +11723,6 @@
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11728,10 +11736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AJ264"/>
+  <dimension ref="A1:AJ267"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="125" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="AA44" sqref="AA44"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="125" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="9.5" x14ac:dyDescent="0.2"/>
@@ -11747,112 +11755,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="33" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="34" t="str">
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="32" t="str">
         <f>初期画面表示!M1</f>
         <v>KS</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="33" t="s">
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="34" t="str">
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="32" t="str">
         <f>初期画面表示!V1</f>
         <v>KS001</v>
       </c>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="46" t="s">
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="48" t="s">
-        <v>45</v>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="37" t="s">
+        <v>42</v>
       </c>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="46" t="s">
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="50"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="39"/>
     </row>
     <row r="2" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="37" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38" t="str">
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="40" t="str">
         <f>初期画面表示!M2</f>
         <v>勤怠システム</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="37" t="s">
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="38" t="str">
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="40" t="str">
         <f>初期画面表示!V2</f>
         <v>勤怠実績一覧</v>
       </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="41" t="s">
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="41" t="s">
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="45"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="31"/>
     </row>
     <row r="3" spans="1:36" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
@@ -11893,24 +11901,24 @@
       <c r="AJ3"/>
     </row>
     <row r="4" spans="1:36" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="67"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="59"/>
       <c r="S4" s="6">
         <v>1</v>
       </c>
@@ -11941,28 +11949,28 @@
       <c r="AJ4" s="6"/>
     </row>
     <row r="5" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="56"/>
       <c r="S5" s="7" t="s">
         <v>18</v>
       </c>
@@ -11985,24 +11993,24 @@
       <c r="AJ5" s="7"/>
     </row>
     <row r="6" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="54"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="56"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
@@ -12023,26 +12031,26 @@
       <c r="AJ6" s="7"/>
     </row>
     <row r="7" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -12063,32 +12071,34 @@
       <c r="AJ7" s="7"/>
     </row>
     <row r="8" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="64"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="53"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="V8" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
@@ -12105,33 +12115,35 @@
       <c r="AJ8" s="7"/>
     </row>
     <row r="9" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="64"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="53"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="7" t="s">
-        <v>29</v>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7" t="s">
+        <v>18</v>
       </c>
-      <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
+      <c r="W9" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
@@ -12147,24 +12159,24 @@
       <c r="AJ9" s="7"/>
     </row>
     <row r="10" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="54"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -12185,26 +12197,26 @@
       <c r="AJ10" s="7"/>
     </row>
     <row r="11" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
-      <c r="B11" s="52" t="s">
-        <v>31</v>
+      <c r="A11" s="60"/>
+      <c r="B11" s="54" t="s">
+        <v>30</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -12225,33 +12237,35 @@
       <c r="AJ11" s="7"/>
     </row>
     <row r="12" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="64"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="53"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
+      <c r="W12" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
@@ -12267,32 +12281,34 @@
       <c r="AJ12" s="7"/>
     </row>
     <row r="13" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="64"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="53"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="7" t="s">
+      <c r="T13" s="7"/>
+      <c r="U13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
+      <c r="V13" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
@@ -12309,7 +12325,7 @@
       <c r="AJ13" s="7"/>
     </row>
     <row r="14" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -12347,9 +12363,9 @@
       <c r="AJ14" s="7"/>
     </row>
     <row r="15" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -12373,7 +12389,9 @@
       </c>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
+      <c r="W15" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
@@ -12389,9 +12407,9 @@
       <c r="AJ15" s="7"/>
     </row>
     <row r="16" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="22"/>
@@ -12410,11 +12428,13 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="23"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="7" t="s">
+      <c r="T16" s="7"/>
+      <c r="U16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
+      <c r="V16" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
@@ -12431,9 +12451,9 @@
       <c r="AJ16" s="7"/>
     </row>
     <row r="17" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -12471,7 +12491,7 @@
       <c r="AJ17" s="7"/>
     </row>
     <row r="18" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
@@ -12509,9 +12529,9 @@
       <c r="AJ18" s="7"/>
     </row>
     <row r="19" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -12549,9 +12569,9 @@
       <c r="AJ19" s="7"/>
     </row>
     <row r="20" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="22"/>
@@ -12575,7 +12595,9 @@
       </c>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
+      <c r="W20" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
@@ -12591,9 +12613,9 @@
       <c r="AJ20" s="7"/>
     </row>
     <row r="21" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="61"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -12612,11 +12634,13 @@
       <c r="Q21" s="22"/>
       <c r="R21" s="23"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="7" t="s">
+      <c r="T21" s="7"/>
+      <c r="U21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
+      <c r="V21" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
@@ -12633,7 +12657,7 @@
       <c r="AJ21" s="7"/>
     </row>
     <row r="22" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -12671,9 +12695,9 @@
       <c r="AJ22" s="7"/>
     </row>
     <row r="23" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -12711,9 +12735,9 @@
       <c r="AJ23" s="7"/>
     </row>
     <row r="24" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -12737,7 +12761,9 @@
       </c>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
+      <c r="W24" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
@@ -12753,9 +12779,9 @@
       <c r="AJ24" s="7"/>
     </row>
     <row r="25" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -12774,11 +12800,13 @@
       <c r="Q25" s="22"/>
       <c r="R25" s="23"/>
       <c r="S25" s="7"/>
-      <c r="T25" s="7" t="s">
+      <c r="T25" s="7"/>
+      <c r="U25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
+      <c r="V25" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
@@ -12795,7 +12823,7 @@
       <c r="AJ25" s="7"/>
     </row>
     <row r="26" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="61"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -12833,9 +12861,9 @@
       <c r="AJ26" s="7"/>
     </row>
     <row r="27" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="21" t="s">
-        <v>38</v>
+      <c r="A27" s="60"/>
+      <c r="B27" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -12873,9 +12901,9 @@
       <c r="AJ27" s="7"/>
     </row>
     <row r="28" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="21" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -12899,7 +12927,9 @@
       </c>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
+      <c r="W28" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
@@ -12915,9 +12945,9 @@
       <c r="AJ28" s="7"/>
     </row>
     <row r="29" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="61"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -12937,8 +12967,12 @@
       <c r="R29" s="23"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
+      <c r="U29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
@@ -12955,24 +12989,24 @@
       <c r="AJ29" s="7"/>
     </row>
     <row r="30" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="61"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="54"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="23"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
@@ -12993,24 +13027,26 @@
       <c r="AJ30" s="7"/>
     </row>
     <row r="31" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="61"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="54"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="23"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
@@ -13031,36 +13067,32 @@
       <c r="AJ31" s="7"/>
     </row>
     <row r="32" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
-      <c r="B32" s="52" t="s">
-        <v>30</v>
+      <c r="A32" s="60"/>
+      <c r="B32" s="54" t="s">
+        <v>47</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="56"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="V32" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
       <c r="W32" s="7" t="s">
         <v>18</v>
       </c>
@@ -13079,28 +13111,34 @@
       <c r="AJ32" s="7"/>
     </row>
     <row r="33" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="61"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="54"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="20"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
+      <c r="U33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V33" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
@@ -13117,24 +13155,24 @@
       <c r="AJ33" s="7"/>
     </row>
     <row r="34" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="61"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="54"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="56"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
@@ -13155,29 +13193,39 @@
       <c r="AJ34" s="7"/>
     </row>
     <row r="35" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="61"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="54"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="56"/>
       <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
+      <c r="T35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W35" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
@@ -13193,24 +13241,24 @@
       <c r="AJ35" s="7"/>
     </row>
     <row r="36" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="61"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="54"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="56"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
@@ -13231,24 +13279,24 @@
       <c r="AJ36" s="7"/>
     </row>
     <row r="37" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="61"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="54"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="56"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
@@ -13269,31 +13317,25 @@
       <c r="AJ37" s="7"/>
     </row>
     <row r="38" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="A38" s="60"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
@@ -13313,29 +13355,25 @@
       <c r="AJ38" s="7"/>
     </row>
     <row r="39" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="59"/>
-      <c r="B39" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="A39" s="60"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
@@ -13355,29 +13393,25 @@
       <c r="AJ39" s="7"/>
     </row>
     <row r="40" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
-      <c r="B40" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="A40" s="60"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="7"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
@@ -13397,26 +13431,28 @@
       <c r="AJ40" s="7"/>
     </row>
     <row r="41" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="59"/>
-      <c r="B41" s="18" t="s">
-        <v>41</v>
+      <c r="A41" s="61" t="s">
+        <v>7</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="20"/>
+      <c r="B41" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="56"/>
       <c r="S41" s="7" t="s">
         <v>18</v>
       </c>
@@ -13439,26 +13475,26 @@
       <c r="AJ41" s="7"/>
     </row>
     <row r="42" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="59"/>
-      <c r="B42" s="18" t="s">
-        <v>42</v>
+      <c r="A42" s="62"/>
+      <c r="B42" s="54" t="s">
+        <v>36</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="20"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="56"/>
       <c r="S42" s="7" t="s">
         <v>18</v>
       </c>
@@ -13481,26 +13517,26 @@
       <c r="AJ42" s="7"/>
     </row>
     <row r="43" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="59"/>
-      <c r="B43" s="18" t="s">
-        <v>43</v>
+      <c r="A43" s="62"/>
+      <c r="B43" s="54" t="s">
+        <v>37</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="20"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="56"/>
       <c r="S43" s="7" t="s">
         <v>18</v>
       </c>
@@ -13523,25 +13559,29 @@
       <c r="AJ43" s="7"/>
     </row>
     <row r="44" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="7"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
@@ -13561,33 +13601,33 @@
       <c r="AJ44" s="7"/>
     </row>
     <row r="45" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="59"/>
-      <c r="B45" s="52" t="s">
-        <v>23</v>
+      <c r="A45" s="62"/>
+      <c r="B45" s="18" t="s">
+        <v>39</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="7"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
-      <c r="W45" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="W45" s="7"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
@@ -13603,33 +13643,33 @@
       <c r="AJ45" s="7"/>
     </row>
     <row r="46" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="59"/>
-      <c r="B46" s="52" t="s">
-        <v>46</v>
+      <c r="A46" s="62"/>
+      <c r="B46" s="18" t="s">
+        <v>40</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="7"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
-      <c r="W46" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="W46" s="7"/>
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
@@ -13645,24 +13685,24 @@
       <c r="AJ46" s="7"/>
     </row>
     <row r="47" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="59"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="54"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="56"/>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
@@ -13683,30 +13723,40 @@
       <c r="AJ47" s="7"/>
     </row>
     <row r="48" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="59"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="54"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="56"/>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
+      <c r="U48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X48" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
@@ -13721,24 +13771,26 @@
       <c r="AJ48" s="7"/>
     </row>
     <row r="49" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="59"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="54"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="56"/>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
@@ -13759,24 +13811,24 @@
       <c r="AJ49" s="7"/>
     </row>
     <row r="50" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="59"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="54"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="56"/>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
@@ -13797,24 +13849,24 @@
       <c r="AJ50" s="7"/>
     </row>
     <row r="51" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="59"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="54"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="55"/>
+      <c r="P51" s="55"/>
+      <c r="Q51" s="55"/>
+      <c r="R51" s="56"/>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
@@ -13835,24 +13887,24 @@
       <c r="AJ51" s="7"/>
     </row>
     <row r="52" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="59"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="54"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="55"/>
+      <c r="Q52" s="55"/>
+      <c r="R52" s="56"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
@@ -13873,24 +13925,24 @@
       <c r="AJ52" s="7"/>
     </row>
     <row r="53" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="59"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="54"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="55"/>
+      <c r="P53" s="55"/>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="56"/>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
@@ -13911,24 +13963,24 @@
       <c r="AJ53" s="7"/>
     </row>
     <row r="54" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="59"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="54"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="55"/>
+      <c r="Q54" s="55"/>
+      <c r="R54" s="56"/>
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
@@ -13949,24 +14001,24 @@
       <c r="AJ54" s="7"/>
     </row>
     <row r="55" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="60"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="53"/>
-      <c r="Q55" s="53"/>
-      <c r="R55" s="54"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="55"/>
+      <c r="Q55" s="55"/>
+      <c r="R55" s="56"/>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
@@ -13986,67 +14038,63 @@
       <c r="AI55" s="7"/>
       <c r="AJ55" s="7"/>
     </row>
-    <row r="56" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="51"/>
-      <c r="N56" s="51"/>
-      <c r="O56" s="51"/>
-      <c r="P56" s="51"/>
-      <c r="Q56" s="51"/>
-      <c r="R56" s="51"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="8"/>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="8"/>
-      <c r="AB56" s="8"/>
-      <c r="AC56" s="8"/>
-      <c r="AD56" s="8"/>
-      <c r="AE56" s="8"/>
-      <c r="AF56" s="8"/>
-      <c r="AG56" s="8"/>
-      <c r="AH56" s="8"/>
-      <c r="AI56" s="8"/>
-      <c r="AJ56" s="8"/>
-    </row>
-    <row r="57" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="51"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="51"/>
-      <c r="O57" s="51"/>
-      <c r="P57" s="51"/>
-      <c r="Q57" s="51"/>
-      <c r="R57" s="51"/>
+    <row r="56" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="62"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="55"/>
+      <c r="N56" s="55"/>
+      <c r="O56" s="55"/>
+      <c r="P56" s="55"/>
+      <c r="Q56" s="55"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7"/>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7"/>
+    </row>
+    <row r="57" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="62"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="56"/>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
@@ -14066,239 +14114,243 @@
       <c r="AI57" s="7"/>
       <c r="AJ57" s="7"/>
     </row>
-    <row r="58" spans="1:36" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="55" t="s">
+    <row r="58" spans="1:36" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="63"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="55"/>
+      <c r="R58" s="56"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="7"/>
+      <c r="AI58" s="7"/>
+      <c r="AJ58" s="7"/>
+    </row>
+    <row r="59" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="64"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="8"/>
+      <c r="AJ59" s="8"/>
+    </row>
+    <row r="60" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="64"/>
+      <c r="R60" s="64"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="7"/>
+      <c r="AJ60" s="7"/>
+    </row>
+    <row r="61" spans="1:36" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="56"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="56"/>
-      <c r="R58" s="57"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
-      <c r="AB58" s="10"/>
-      <c r="AC58" s="10"/>
-      <c r="AD58" s="10"/>
-      <c r="AE58" s="10"/>
-      <c r="AF58" s="10"/>
-      <c r="AG58" s="10"/>
-      <c r="AH58" s="10"/>
-      <c r="AI58" s="10"/>
-      <c r="AJ58" s="10"/>
-    </row>
-    <row r="59" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="51" t="s">
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
+      <c r="M61" s="66"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="66"/>
+      <c r="Q61" s="66"/>
+      <c r="R61" s="67"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="10"/>
+      <c r="AG61" s="10"/>
+      <c r="AH61" s="10"/>
+      <c r="AI61" s="10"/>
+      <c r="AJ61" s="10"/>
+    </row>
+    <row r="62" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="51"/>
-      <c r="M59" s="51"/>
-      <c r="N59" s="51"/>
-      <c r="O59" s="51"/>
-      <c r="P59" s="51"/>
-      <c r="Q59" s="51"/>
-      <c r="R59" s="51"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="7"/>
-      <c r="Z59" s="7"/>
-      <c r="AA59" s="7"/>
-      <c r="AB59" s="7"/>
-      <c r="AC59" s="7"/>
-      <c r="AD59" s="7"/>
-      <c r="AE59" s="7"/>
-      <c r="AF59" s="7"/>
-      <c r="AG59" s="7"/>
-      <c r="AH59" s="7"/>
-      <c r="AI59" s="7"/>
-      <c r="AJ59" s="7"/>
-    </row>
-    <row r="60" spans="1:36" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="51" t="s">
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="64"/>
+      <c r="R62" s="64"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="7"/>
+      <c r="AI62" s="7"/>
+      <c r="AJ62" s="7"/>
+    </row>
+    <row r="63" spans="1:36" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="51"/>
-      <c r="M60" s="51"/>
-      <c r="N60" s="51"/>
-      <c r="O60" s="51"/>
-      <c r="P60" s="51"/>
-      <c r="Q60" s="51"/>
-      <c r="R60" s="51"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10"/>
-      <c r="Y60" s="10"/>
-      <c r="Z60" s="10"/>
-      <c r="AA60" s="10"/>
-      <c r="AB60" s="10"/>
-      <c r="AC60" s="10"/>
-      <c r="AD60" s="10"/>
-      <c r="AE60" s="10"/>
-      <c r="AF60" s="10"/>
-      <c r="AG60" s="10"/>
-      <c r="AH60" s="10"/>
-      <c r="AI60" s="10"/>
-      <c r="AJ60" s="10"/>
-    </row>
-    <row r="61" spans="1:36" ht="13" x14ac:dyDescent="0.2">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61"/>
-      <c r="R61"/>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-      <c r="W61"/>
-      <c r="X61"/>
-      <c r="Y61"/>
-      <c r="Z61"/>
-      <c r="AA61"/>
-      <c r="AB61"/>
-      <c r="AC61"/>
-      <c r="AD61"/>
-      <c r="AE61"/>
-      <c r="AF61"/>
-      <c r="AG61"/>
-      <c r="AH61"/>
-      <c r="AI61"/>
-      <c r="AJ61"/>
-    </row>
-    <row r="62" spans="1:36" ht="13" x14ac:dyDescent="0.2">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
-      <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
-      <c r="U62"/>
-      <c r="V62"/>
-      <c r="W62"/>
-      <c r="X62"/>
-      <c r="Y62"/>
-      <c r="Z62"/>
-      <c r="AA62"/>
-      <c r="AB62"/>
-      <c r="AC62"/>
-      <c r="AD62"/>
-      <c r="AE62"/>
-      <c r="AF62"/>
-      <c r="AG62"/>
-      <c r="AH62"/>
-      <c r="AI62"/>
-      <c r="AJ62"/>
-    </row>
-    <row r="63" spans="1:36" ht="13" x14ac:dyDescent="0.2">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
-      <c r="U63"/>
-      <c r="V63"/>
-      <c r="W63"/>
-      <c r="X63"/>
-      <c r="Y63"/>
-      <c r="Z63"/>
-      <c r="AA63"/>
-      <c r="AB63"/>
-      <c r="AC63"/>
-      <c r="AD63"/>
-      <c r="AE63"/>
-      <c r="AF63"/>
-      <c r="AG63"/>
-      <c r="AH63"/>
-      <c r="AI63"/>
-      <c r="AJ63"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="O63" s="64"/>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="64"/>
+      <c r="R63" s="64"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10"/>
+      <c r="AD63" s="10"/>
+      <c r="AE63" s="10"/>
+      <c r="AF63" s="10"/>
+      <c r="AG63" s="10"/>
+      <c r="AH63" s="10"/>
+      <c r="AI63" s="10"/>
+      <c r="AJ63" s="10"/>
     </row>
     <row r="64" spans="1:36" ht="13" x14ac:dyDescent="0.2">
       <c r="A64"/>
@@ -14308,7 +14360,7 @@
       <c r="E64"/>
       <c r="F64"/>
       <c r="G64"/>
-      <c r="H64" s="4"/>
+      <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
@@ -14422,7 +14474,7 @@
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67"/>
-      <c r="H67"/>
+      <c r="H67" s="4"/>
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67"/>
@@ -21938,26 +21990,155 @@
       <c r="AI264"/>
       <c r="AJ264"/>
     </row>
+    <row r="265" spans="1:36" ht="13" x14ac:dyDescent="0.2">
+      <c r="A265"/>
+      <c r="B265"/>
+      <c r="C265"/>
+      <c r="D265"/>
+      <c r="E265"/>
+      <c r="F265"/>
+      <c r="G265"/>
+      <c r="H265"/>
+      <c r="I265"/>
+      <c r="J265"/>
+      <c r="K265"/>
+      <c r="L265"/>
+      <c r="M265"/>
+      <c r="N265"/>
+      <c r="O265"/>
+      <c r="P265"/>
+      <c r="Q265"/>
+      <c r="R265"/>
+      <c r="S265"/>
+      <c r="T265"/>
+      <c r="U265"/>
+      <c r="V265"/>
+      <c r="W265"/>
+      <c r="X265"/>
+      <c r="Y265"/>
+      <c r="Z265"/>
+      <c r="AA265"/>
+      <c r="AB265"/>
+      <c r="AC265"/>
+      <c r="AD265"/>
+      <c r="AE265"/>
+      <c r="AF265"/>
+      <c r="AG265"/>
+      <c r="AH265"/>
+      <c r="AI265"/>
+      <c r="AJ265"/>
+    </row>
+    <row r="266" spans="1:36" ht="13" x14ac:dyDescent="0.2">
+      <c r="A266"/>
+      <c r="B266"/>
+      <c r="C266"/>
+      <c r="D266"/>
+      <c r="E266"/>
+      <c r="F266"/>
+      <c r="G266"/>
+      <c r="H266"/>
+      <c r="I266"/>
+      <c r="J266"/>
+      <c r="K266"/>
+      <c r="L266"/>
+      <c r="M266"/>
+      <c r="N266"/>
+      <c r="O266"/>
+      <c r="P266"/>
+      <c r="Q266"/>
+      <c r="R266"/>
+      <c r="S266"/>
+      <c r="T266"/>
+      <c r="U266"/>
+      <c r="V266"/>
+      <c r="W266"/>
+      <c r="X266"/>
+      <c r="Y266"/>
+      <c r="Z266"/>
+      <c r="AA266"/>
+      <c r="AB266"/>
+      <c r="AC266"/>
+      <c r="AD266"/>
+      <c r="AE266"/>
+      <c r="AF266"/>
+      <c r="AG266"/>
+      <c r="AH266"/>
+      <c r="AI266"/>
+      <c r="AJ266"/>
+    </row>
+    <row r="267" spans="1:36" ht="13" x14ac:dyDescent="0.2">
+      <c r="A267"/>
+      <c r="B267"/>
+      <c r="C267"/>
+      <c r="D267"/>
+      <c r="E267"/>
+      <c r="F267"/>
+      <c r="G267"/>
+      <c r="H267"/>
+      <c r="I267"/>
+      <c r="J267"/>
+      <c r="K267"/>
+      <c r="L267"/>
+      <c r="M267"/>
+      <c r="N267"/>
+      <c r="O267"/>
+      <c r="P267"/>
+      <c r="Q267"/>
+      <c r="R267"/>
+      <c r="S267"/>
+      <c r="T267"/>
+      <c r="U267"/>
+      <c r="V267"/>
+      <c r="W267"/>
+      <c r="X267"/>
+      <c r="Y267"/>
+      <c r="Z267"/>
+      <c r="AA267"/>
+      <c r="AB267"/>
+      <c r="AC267"/>
+      <c r="AD267"/>
+      <c r="AE267"/>
+      <c r="AF267"/>
+      <c r="AG267"/>
+      <c r="AH267"/>
+      <c r="AI267"/>
+      <c r="AJ267"/>
+    </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B13:R13"/>
-    <mergeCell ref="B30:R30"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="B5:R5"/>
-    <mergeCell ref="B6:R6"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A63:R63"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="A60:R60"/>
+    <mergeCell ref="A62:R62"/>
+    <mergeCell ref="B57:R57"/>
+    <mergeCell ref="B58:R58"/>
+    <mergeCell ref="A59:R59"/>
+    <mergeCell ref="A61:R61"/>
+    <mergeCell ref="B52:R52"/>
+    <mergeCell ref="B53:R53"/>
+    <mergeCell ref="B54:R54"/>
+    <mergeCell ref="B55:R55"/>
+    <mergeCell ref="B56:R56"/>
+    <mergeCell ref="A41:A58"/>
+    <mergeCell ref="B47:R47"/>
+    <mergeCell ref="B48:R48"/>
+    <mergeCell ref="B49:R49"/>
+    <mergeCell ref="B50:R50"/>
+    <mergeCell ref="B51:R51"/>
+    <mergeCell ref="B43:R43"/>
+    <mergeCell ref="B38:R38"/>
+    <mergeCell ref="B39:R39"/>
+    <mergeCell ref="B40:R40"/>
+    <mergeCell ref="B41:R41"/>
+    <mergeCell ref="B42:R42"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A5:A37"/>
+    <mergeCell ref="A5:A40"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="B7:R7"/>
@@ -21965,42 +22146,27 @@
     <mergeCell ref="B9:R9"/>
     <mergeCell ref="B10:R10"/>
     <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B31:R31"/>
-    <mergeCell ref="B32:R32"/>
-    <mergeCell ref="B33:R33"/>
     <mergeCell ref="B34:R34"/>
     <mergeCell ref="B35:R35"/>
     <mergeCell ref="B36:R36"/>
     <mergeCell ref="B37:R37"/>
-    <mergeCell ref="B38:R38"/>
-    <mergeCell ref="B39:R39"/>
-    <mergeCell ref="A38:A55"/>
-    <mergeCell ref="B44:R44"/>
-    <mergeCell ref="B45:R45"/>
-    <mergeCell ref="B46:R46"/>
-    <mergeCell ref="B47:R47"/>
-    <mergeCell ref="B48:R48"/>
-    <mergeCell ref="B40:R40"/>
-    <mergeCell ref="A60:R60"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="A57:R57"/>
-    <mergeCell ref="A59:R59"/>
-    <mergeCell ref="B54:R54"/>
-    <mergeCell ref="B55:R55"/>
-    <mergeCell ref="A56:R56"/>
-    <mergeCell ref="A58:R58"/>
-    <mergeCell ref="B49:R49"/>
-    <mergeCell ref="B50:R50"/>
-    <mergeCell ref="B51:R51"/>
-    <mergeCell ref="B52:R52"/>
-    <mergeCell ref="B53:R53"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B13:R13"/>
+    <mergeCell ref="B32:R32"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="B5:R5"/>
+    <mergeCell ref="B6:R6"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S56:AJ56" xr:uid="{3FCFDBD8-BCAF-FD4F-B521-B180AABC7AB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S59:AJ59" xr:uid="{3FCFDBD8-BCAF-FD4F-B521-B180AABC7AB5}">
       <formula1>"○,×,ー"</formula1>
     </dataValidation>
   </dataValidations>
